--- a/natmiOut/YoungD2/LR-pairs_lrc2p/C3-Itgax.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/C3-Itgax.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,55 +534,55 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.196284554607325</v>
+        <v>0.6290406666666667</v>
       </c>
       <c r="H2">
-        <v>0.196284554607325</v>
+        <v>1.887122</v>
       </c>
       <c r="I2">
-        <v>0.0008227885447038991</v>
+        <v>0.002417816460522424</v>
       </c>
       <c r="J2">
-        <v>0.0008227885447038991</v>
+        <v>0.002417816460522424</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>26.3130163749646</v>
+        <v>0.020618</v>
       </c>
       <c r="N2">
-        <v>26.3130163749646</v>
+        <v>0.061854</v>
       </c>
       <c r="O2">
-        <v>0.2284783064668124</v>
+        <v>0.0001626961273947449</v>
       </c>
       <c r="P2">
-        <v>0.2284783064668124</v>
+        <v>0.000162696127394745</v>
       </c>
       <c r="Q2">
-        <v>5.164838699535176</v>
+        <v>0.01296956046533333</v>
       </c>
       <c r="R2">
-        <v>5.164838699535176</v>
+        <v>0.116726044188</v>
       </c>
       <c r="S2">
-        <v>0.00018798933327424</v>
+        <v>3.933693748782676E-07</v>
       </c>
       <c r="T2">
-        <v>0.00018798933327424</v>
+        <v>3.933693748782677E-07</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,55 +596,55 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.196284554607325</v>
+        <v>0.6290406666666667</v>
       </c>
       <c r="H3">
-        <v>0.196284554607325</v>
+        <v>1.887122</v>
       </c>
       <c r="I3">
-        <v>0.0008227885447038991</v>
+        <v>0.002417816460522424</v>
       </c>
       <c r="J3">
-        <v>0.0008227885447038991</v>
+        <v>0.002417816460522424</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>51.8890781161981</v>
+        <v>32.34376366666667</v>
       </c>
       <c r="N3">
-        <v>51.8890781161981</v>
+        <v>97.031291</v>
       </c>
       <c r="O3">
-        <v>0.4505575690437743</v>
+        <v>0.2552238380995985</v>
       </c>
       <c r="P3">
-        <v>0.4505575690437743</v>
+        <v>0.2552238380995986</v>
       </c>
       <c r="Q3">
-        <v>10.18502458702264</v>
+        <v>20.34554265938911</v>
       </c>
       <c r="R3">
-        <v>10.18502458702264</v>
+        <v>183.109883934502</v>
       </c>
       <c r="S3">
-        <v>0.0003707136065388536</v>
+        <v>0.0006170843968749196</v>
       </c>
       <c r="T3">
-        <v>0.0003707136065388536</v>
+        <v>0.0006170843968749197</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.196284554607325</v>
+        <v>0.6290406666666667</v>
       </c>
       <c r="H4">
-        <v>0.196284554607325</v>
+        <v>1.887122</v>
       </c>
       <c r="I4">
-        <v>0.0008227885447038991</v>
+        <v>0.002417816460522424</v>
       </c>
       <c r="J4">
-        <v>0.0008227885447038991</v>
+        <v>0.002417816460522424</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>36.9642719874277</v>
+        <v>54.17663333333333</v>
       </c>
       <c r="N4">
-        <v>36.9642719874277</v>
+        <v>162.5299</v>
       </c>
       <c r="O4">
-        <v>0.3209641244894135</v>
+        <v>0.4275064719477343</v>
       </c>
       <c r="P4">
-        <v>0.3209641244894135</v>
+        <v>0.4275064719477343</v>
       </c>
       <c r="Q4">
-        <v>7.255515663436266</v>
+        <v>34.07930554975556</v>
       </c>
       <c r="R4">
-        <v>7.255515663436266</v>
+        <v>306.7137499478</v>
       </c>
       <c r="S4">
-        <v>0.0002640856048908056</v>
+        <v>0.0010336321848551</v>
       </c>
       <c r="T4">
-        <v>0.0002640856048908056</v>
+        <v>0.0010336321848551</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>80.0008696479444</v>
+        <v>0.6290406666666667</v>
       </c>
       <c r="H5">
-        <v>80.0008696479444</v>
+        <v>1.887122</v>
       </c>
       <c r="I5">
-        <v>0.3353488472099174</v>
+        <v>0.002417816460522424</v>
       </c>
       <c r="J5">
-        <v>0.3353488472099174</v>
+        <v>0.002417816460522424</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>26.3130163749646</v>
+        <v>40.17406266666666</v>
       </c>
       <c r="N5">
-        <v>26.3130163749646</v>
+        <v>120.522188</v>
       </c>
       <c r="O5">
-        <v>0.2284783064668124</v>
+        <v>0.3170125335910596</v>
       </c>
       <c r="P5">
-        <v>0.2284783064668124</v>
+        <v>0.3170125335910596</v>
       </c>
       <c r="Q5">
-        <v>2105.064193057769</v>
+        <v>25.27111916254844</v>
       </c>
       <c r="R5">
-        <v>2105.064193057769</v>
+        <v>227.440072462936</v>
       </c>
       <c r="S5">
-        <v>0.07661993668611973</v>
+        <v>0.0007664781219083817</v>
       </c>
       <c r="T5">
-        <v>0.07661993668611973</v>
+        <v>0.0007664781219083818</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,55 +782,55 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>80.0008696479444</v>
+        <v>0.6290406666666667</v>
       </c>
       <c r="H6">
-        <v>80.0008696479444</v>
+        <v>1.887122</v>
       </c>
       <c r="I6">
-        <v>0.3353488472099174</v>
+        <v>0.002417816460522424</v>
       </c>
       <c r="J6">
-        <v>0.3353488472099174</v>
+        <v>0.002417816460522424</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>51.8890781161981</v>
+        <v>0.01197066666666667</v>
       </c>
       <c r="N6">
-        <v>51.8890781161981</v>
+        <v>0.035912</v>
       </c>
       <c r="O6">
-        <v>0.4505575690437743</v>
+        <v>9.446023421282504E-05</v>
       </c>
       <c r="P6">
-        <v>0.4505575690437743</v>
+        <v>9.446023421282505E-05</v>
       </c>
       <c r="Q6">
-        <v>4151.171374525969</v>
+        <v>0.007530036140444445</v>
       </c>
       <c r="R6">
-        <v>4151.171374525969</v>
+        <v>0.06777032526399999</v>
       </c>
       <c r="S6">
-        <v>0.1510939613805324</v>
+        <v>2.283875091445718E-07</v>
       </c>
       <c r="T6">
-        <v>0.1510939613805324</v>
+        <v>2.283875091445719E-07</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,60 +844,60 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>80.0008696479444</v>
+        <v>82.87880433333333</v>
       </c>
       <c r="H7">
-        <v>80.0008696479444</v>
+        <v>248.636413</v>
       </c>
       <c r="I7">
-        <v>0.3353488472099174</v>
+        <v>0.3185576830944961</v>
       </c>
       <c r="J7">
-        <v>0.3353488472099174</v>
+        <v>0.3185576830944961</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>36.9642719874277</v>
+        <v>0.020618</v>
       </c>
       <c r="N7">
-        <v>36.9642719874277</v>
+        <v>0.061854</v>
       </c>
       <c r="O7">
-        <v>0.3209641244894135</v>
+        <v>0.0001626961273947449</v>
       </c>
       <c r="P7">
-        <v>0.3209641244894135</v>
+        <v>0.000162696127394745</v>
       </c>
       <c r="Q7">
-        <v>2957.173904897366</v>
+        <v>1.708795187744667</v>
       </c>
       <c r="R7">
-        <v>2957.173904897366</v>
+        <v>15.379156689702</v>
       </c>
       <c r="S7">
-        <v>0.1076349491432652</v>
+        <v>5.182810139131692E-05</v>
       </c>
       <c r="T7">
-        <v>0.1076349491432652</v>
+        <v>5.182810139131694E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -909,57 +909,57 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>27.7058855844917</v>
+        <v>82.87880433333333</v>
       </c>
       <c r="H8">
-        <v>27.7058855844917</v>
+        <v>248.636413</v>
       </c>
       <c r="I8">
-        <v>0.1161379474070241</v>
+        <v>0.3185576830944961</v>
       </c>
       <c r="J8">
-        <v>0.1161379474070241</v>
+        <v>0.3185576830944961</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>26.3130163749646</v>
+        <v>32.34376366666667</v>
       </c>
       <c r="N8">
-        <v>26.3130163749646</v>
+        <v>97.031291</v>
       </c>
       <c r="O8">
-        <v>0.2284783064668124</v>
+        <v>0.2552238380995985</v>
       </c>
       <c r="P8">
-        <v>0.2284783064668124</v>
+        <v>0.2552238380995986</v>
       </c>
       <c r="Q8">
-        <v>729.0254210676258</v>
+        <v>2680.612460333243</v>
       </c>
       <c r="R8">
-        <v>729.0254210676258</v>
+        <v>24125.51214299918</v>
       </c>
       <c r="S8">
-        <v>0.02653500154008859</v>
+        <v>0.08130351453549289</v>
       </c>
       <c r="T8">
-        <v>0.02653500154008859</v>
+        <v>0.08130351453549291</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -971,57 +971,57 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>27.7058855844917</v>
+        <v>82.87880433333333</v>
       </c>
       <c r="H9">
-        <v>27.7058855844917</v>
+        <v>248.636413</v>
       </c>
       <c r="I9">
-        <v>0.1161379474070241</v>
+        <v>0.3185576830944961</v>
       </c>
       <c r="J9">
-        <v>0.1161379474070241</v>
+        <v>0.3185576830944961</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>51.8890781161981</v>
+        <v>54.17663333333333</v>
       </c>
       <c r="N9">
-        <v>51.8890781161981</v>
+        <v>162.5299</v>
       </c>
       <c r="O9">
-        <v>0.4505575690437743</v>
+        <v>0.4275064719477343</v>
       </c>
       <c r="P9">
-        <v>0.4505575690437743</v>
+        <v>0.4275064719477343</v>
       </c>
       <c r="Q9">
-        <v>1437.632861372137</v>
+        <v>4490.094593472078</v>
       </c>
       <c r="R9">
-        <v>1437.632861372137</v>
+        <v>40410.8513412487</v>
       </c>
       <c r="S9">
-        <v>0.0523268312574425</v>
+        <v>0.1361854712115724</v>
       </c>
       <c r="T9">
-        <v>0.0523268312574425</v>
+        <v>0.1361854712115725</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1033,57 +1033,57 @@
         <v>24</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>27.7058855844917</v>
+        <v>82.87880433333333</v>
       </c>
       <c r="H10">
-        <v>27.7058855844917</v>
+        <v>248.636413</v>
       </c>
       <c r="I10">
-        <v>0.1161379474070241</v>
+        <v>0.3185576830944961</v>
       </c>
       <c r="J10">
-        <v>0.1161379474070241</v>
+        <v>0.3185576830944961</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>36.9642719874277</v>
+        <v>40.17406266666666</v>
       </c>
       <c r="N10">
-        <v>36.9642719874277</v>
+        <v>120.522188</v>
       </c>
       <c r="O10">
-        <v>0.3209641244894135</v>
+        <v>0.3170125335910596</v>
       </c>
       <c r="P10">
-        <v>0.3209641244894135</v>
+        <v>0.3170125335910596</v>
       </c>
       <c r="Q10">
-        <v>1024.127890397704</v>
+        <v>3329.578279025738</v>
       </c>
       <c r="R10">
-        <v>1024.127890397704</v>
+        <v>29966.20451123164</v>
       </c>
       <c r="S10">
-        <v>0.03727611460949305</v>
+        <v>0.1009867782126841</v>
       </c>
       <c r="T10">
-        <v>0.03727611460949305</v>
+        <v>0.1009867782126841</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>30.1060586039336</v>
+        <v>82.87880433333333</v>
       </c>
       <c r="H11">
-        <v>30.1060586039336</v>
+        <v>248.636413</v>
       </c>
       <c r="I11">
-        <v>0.1261990287267179</v>
+        <v>0.3185576830944961</v>
       </c>
       <c r="J11">
-        <v>0.1261990287267179</v>
+        <v>0.3185576830944961</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>26.3130163749646</v>
+        <v>0.01197066666666667</v>
       </c>
       <c r="N11">
-        <v>26.3130163749646</v>
+        <v>0.035912</v>
       </c>
       <c r="O11">
-        <v>0.2284783064668124</v>
+        <v>9.446023421282504E-05</v>
       </c>
       <c r="P11">
-        <v>0.2284783064668124</v>
+        <v>9.446023421282505E-05</v>
       </c>
       <c r="Q11">
-        <v>792.1812130309487</v>
+        <v>0.9921145404062222</v>
       </c>
       <c r="R11">
-        <v>792.1812130309487</v>
+        <v>8.929030863655999</v>
       </c>
       <c r="S11">
-        <v>0.0288337403612371</v>
+        <v>3.0091033355401E-05</v>
       </c>
       <c r="T11">
-        <v>0.0288337403612371</v>
+        <v>3.0091033355401E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>30.1060586039336</v>
+        <v>41.02052933333334</v>
       </c>
       <c r="H12">
-        <v>30.1060586039336</v>
+        <v>123.061588</v>
       </c>
       <c r="I12">
-        <v>0.1261990287267179</v>
+        <v>0.1576688381166818</v>
       </c>
       <c r="J12">
-        <v>0.1261990287267179</v>
+        <v>0.1576688381166818</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>51.8890781161981</v>
+        <v>0.020618</v>
       </c>
       <c r="N12">
-        <v>51.8890781161981</v>
+        <v>0.061854</v>
       </c>
       <c r="O12">
-        <v>0.4505575690437743</v>
+        <v>0.0001626961273947449</v>
       </c>
       <c r="P12">
-        <v>0.4505575690437743</v>
+        <v>0.000162696127394745</v>
       </c>
       <c r="Q12">
-        <v>1562.175626670348</v>
+        <v>0.8457612737946667</v>
       </c>
       <c r="R12">
-        <v>1562.175626670348</v>
+        <v>7.611851464152</v>
       </c>
       <c r="S12">
-        <v>0.05685992759879543</v>
+        <v>2.565210937241308E-05</v>
       </c>
       <c r="T12">
-        <v>0.05685992759879543</v>
+        <v>2.565210937241309E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,60 +1216,60 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>30.1060586039336</v>
+        <v>41.02052933333334</v>
       </c>
       <c r="H13">
-        <v>30.1060586039336</v>
+        <v>123.061588</v>
       </c>
       <c r="I13">
-        <v>0.1261990287267179</v>
+        <v>0.1576688381166818</v>
       </c>
       <c r="J13">
-        <v>0.1261990287267179</v>
+        <v>0.1576688381166818</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>36.9642719874277</v>
+        <v>32.34376366666667</v>
       </c>
       <c r="N13">
-        <v>36.9642719874277</v>
+        <v>97.031291</v>
       </c>
       <c r="O13">
-        <v>0.3209641244894135</v>
+        <v>0.2552238380995985</v>
       </c>
       <c r="P13">
-        <v>0.3209641244894135</v>
+        <v>0.2552238380995986</v>
       </c>
       <c r="Q13">
-        <v>1112.848538705239</v>
+        <v>1326.758306238901</v>
       </c>
       <c r="R13">
-        <v>1112.848538705239</v>
+        <v>11940.82475615011</v>
       </c>
       <c r="S13">
-        <v>0.04050536076668534</v>
+        <v>0.04024084601284381</v>
       </c>
       <c r="T13">
-        <v>0.04050536076668534</v>
+        <v>0.04024084601284383</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,122 +1278,122 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>100.160602978402</v>
+        <v>41.02052933333334</v>
       </c>
       <c r="H14">
-        <v>100.160602978402</v>
+        <v>123.061588</v>
       </c>
       <c r="I14">
-        <v>0.4198547202357866</v>
+        <v>0.1576688381166818</v>
       </c>
       <c r="J14">
-        <v>0.4198547202357866</v>
+        <v>0.1576688381166818</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>26.3130163749646</v>
+        <v>54.17663333333333</v>
       </c>
       <c r="N14">
-        <v>26.3130163749646</v>
+        <v>162.5299</v>
       </c>
       <c r="O14">
-        <v>0.2284783064668124</v>
+        <v>0.4275064719477343</v>
       </c>
       <c r="P14">
-        <v>0.2284783064668124</v>
+        <v>0.4275064719477343</v>
       </c>
       <c r="Q14">
-        <v>2635.52758629702</v>
+        <v>2222.354176831245</v>
       </c>
       <c r="R14">
-        <v>2635.52758629702</v>
+        <v>20001.1875914812</v>
       </c>
       <c r="S14">
-        <v>0.0959276954415698</v>
+        <v>0.0674044487193611</v>
       </c>
       <c r="T14">
-        <v>0.0959276954415698</v>
+        <v>0.0674044487193611</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
         <v>24</v>
       </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" t="s">
-        <v>23</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>100.160602978402</v>
+        <v>41.02052933333334</v>
       </c>
       <c r="H15">
-        <v>100.160602978402</v>
+        <v>123.061588</v>
       </c>
       <c r="I15">
-        <v>0.4198547202357866</v>
+        <v>0.1576688381166818</v>
       </c>
       <c r="J15">
-        <v>0.4198547202357866</v>
+        <v>0.1576688381166818</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>51.8890781161981</v>
+        <v>40.17406266666666</v>
       </c>
       <c r="N15">
-        <v>51.8890781161981</v>
+        <v>120.522188</v>
       </c>
       <c r="O15">
-        <v>0.4505575690437743</v>
+        <v>0.3170125335910596</v>
       </c>
       <c r="P15">
-        <v>0.4505575690437743</v>
+        <v>0.3170125335910596</v>
       </c>
       <c r="Q15">
-        <v>5197.241352111805</v>
+        <v>1647.961316057172</v>
       </c>
       <c r="R15">
-        <v>5197.241352111805</v>
+        <v>14831.65184451454</v>
       </c>
       <c r="S15">
-        <v>0.1891687221009899</v>
+        <v>0.04998299783972793</v>
       </c>
       <c r="T15">
-        <v>0.1891687221009899</v>
+        <v>0.04998299783972794</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,60 +1402,60 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>100.160602978402</v>
+        <v>41.02052933333334</v>
       </c>
       <c r="H16">
-        <v>100.160602978402</v>
+        <v>123.061588</v>
       </c>
       <c r="I16">
-        <v>0.4198547202357866</v>
+        <v>0.1576688381166818</v>
       </c>
       <c r="J16">
-        <v>0.4198547202357866</v>
+        <v>0.1576688381166818</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>36.9642719874277</v>
+        <v>0.01197066666666667</v>
       </c>
       <c r="N16">
-        <v>36.9642719874277</v>
+        <v>0.035912</v>
       </c>
       <c r="O16">
-        <v>0.3209641244894135</v>
+        <v>9.446023421282504E-05</v>
       </c>
       <c r="P16">
-        <v>0.3209641244894135</v>
+        <v>9.446023421282505E-05</v>
       </c>
       <c r="Q16">
-        <v>3702.363770918412</v>
+        <v>0.4910430831395556</v>
       </c>
       <c r="R16">
-        <v>3702.363770918412</v>
+        <v>4.419387748256</v>
       </c>
       <c r="S16">
-        <v>0.1347583026932269</v>
+        <v>1.489343537656576E-05</v>
       </c>
       <c r="T16">
-        <v>0.1347583026932269</v>
+        <v>1.489343537656576E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1464,60 +1464,60 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.390443725935655</v>
+        <v>30.16156866666667</v>
       </c>
       <c r="H17">
-        <v>0.390443725935655</v>
+        <v>90.484706</v>
       </c>
       <c r="I17">
-        <v>0.001636667875850162</v>
+        <v>0.115930719684436</v>
       </c>
       <c r="J17">
-        <v>0.001636667875850162</v>
+        <v>0.115930719684436</v>
       </c>
       <c r="K17">
         <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>26.3130163749646</v>
+        <v>0.020618</v>
       </c>
       <c r="N17">
-        <v>26.3130163749646</v>
+        <v>0.061854</v>
       </c>
       <c r="O17">
-        <v>0.2284783064668124</v>
+        <v>0.0001626961273947449</v>
       </c>
       <c r="P17">
-        <v>0.2284783064668124</v>
+        <v>0.000162696127394745</v>
       </c>
       <c r="Q17">
-        <v>10.27375215404708</v>
+        <v>0.6218712227693334</v>
       </c>
       <c r="R17">
-        <v>10.27375215404708</v>
+        <v>5.596841004924</v>
       </c>
       <c r="S17">
-        <v>0.00037394310452288</v>
+        <v>1.886147913874346E-05</v>
       </c>
       <c r="T17">
-        <v>0.00037394310452288</v>
+        <v>1.886147913874346E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,117 +1526,861 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.390443725935655</v>
+        <v>30.16156866666667</v>
       </c>
       <c r="H18">
-        <v>0.390443725935655</v>
+        <v>90.484706</v>
       </c>
       <c r="I18">
-        <v>0.001636667875850162</v>
+        <v>0.115930719684436</v>
       </c>
       <c r="J18">
-        <v>0.001636667875850162</v>
+        <v>0.115930719684436</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>51.8890781161981</v>
+        <v>32.34376366666667</v>
       </c>
       <c r="N18">
-        <v>51.8890781161981</v>
+        <v>97.031291</v>
       </c>
       <c r="O18">
-        <v>0.4505575690437743</v>
+        <v>0.2552238380995985</v>
       </c>
       <c r="P18">
-        <v>0.4505575690437743</v>
+        <v>0.2552238380995986</v>
       </c>
       <c r="Q18">
-        <v>20.25976499505465</v>
+        <v>975.5386487706052</v>
       </c>
       <c r="R18">
-        <v>20.25976499505465</v>
+        <v>8779.847838935446</v>
       </c>
       <c r="S18">
-        <v>0.0007374130994750865</v>
+        <v>0.02958828323151043</v>
       </c>
       <c r="T18">
-        <v>0.0007374130994750865</v>
+        <v>0.02958828323151043</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>30.16156866666667</v>
+      </c>
+      <c r="H19">
+        <v>90.484706</v>
+      </c>
+      <c r="I19">
+        <v>0.115930719684436</v>
+      </c>
+      <c r="J19">
+        <v>0.115930719684436</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>54.17663333333333</v>
+      </c>
+      <c r="N19">
+        <v>162.5299</v>
+      </c>
+      <c r="O19">
+        <v>0.4275064719477343</v>
+      </c>
+      <c r="P19">
+        <v>0.4275064719477343</v>
+      </c>
+      <c r="Q19">
+        <v>1634.052246412156</v>
+      </c>
+      <c r="R19">
+        <v>14706.4702177094</v>
+      </c>
+      <c r="S19">
+        <v>0.04956113296265497</v>
+      </c>
+      <c r="T19">
+        <v>0.04956113296265498</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>30.16156866666667</v>
+      </c>
+      <c r="H20">
+        <v>90.484706</v>
+      </c>
+      <c r="I20">
+        <v>0.115930719684436</v>
+      </c>
+      <c r="J20">
+        <v>0.115930719684436</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>40.17406266666666</v>
+      </c>
+      <c r="N20">
+        <v>120.522188</v>
+      </c>
+      <c r="O20">
+        <v>0.3170125335910596</v>
+      </c>
+      <c r="P20">
+        <v>0.3170125335910596</v>
+      </c>
+      <c r="Q20">
+        <v>1211.712749739636</v>
+      </c>
+      <c r="R20">
+        <v>10905.41474765673</v>
+      </c>
+      <c r="S20">
+        <v>0.03675149116819797</v>
+      </c>
+      <c r="T20">
+        <v>0.03675149116819797</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
         <v>25</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>30.16156866666667</v>
+      </c>
+      <c r="H21">
+        <v>90.484706</v>
+      </c>
+      <c r="I21">
+        <v>0.115930719684436</v>
+      </c>
+      <c r="J21">
+        <v>0.115930719684436</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.01197066666666667</v>
+      </c>
+      <c r="N21">
+        <v>0.035912</v>
+      </c>
+      <c r="O21">
+        <v>9.446023421282504E-05</v>
+      </c>
+      <c r="P21">
+        <v>9.446023421282505E-05</v>
+      </c>
+      <c r="Q21">
+        <v>0.3610540846524444</v>
+      </c>
+      <c r="R21">
+        <v>3.249486761872</v>
+      </c>
+      <c r="S21">
+        <v>1.095084293385319E-05</v>
+      </c>
+      <c r="T21">
+        <v>1.095084293385319E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
         <v>24</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>0.390443725935655</v>
-      </c>
-      <c r="H19">
-        <v>0.390443725935655</v>
-      </c>
-      <c r="I19">
-        <v>0.001636667875850162</v>
-      </c>
-      <c r="J19">
-        <v>0.001636667875850162</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>36.9642719874277</v>
-      </c>
-      <c r="N19">
-        <v>36.9642719874277</v>
-      </c>
-      <c r="O19">
-        <v>0.3209641244894135</v>
-      </c>
-      <c r="P19">
-        <v>0.3209641244894135</v>
-      </c>
-      <c r="Q19">
-        <v>14.43246808127023</v>
-      </c>
-      <c r="R19">
-        <v>14.43246808127023</v>
-      </c>
-      <c r="S19">
-        <v>0.0005253116718521952</v>
-      </c>
-      <c r="T19">
-        <v>0.0005253116718521952</v>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>105.0835686666667</v>
+      </c>
+      <c r="H22">
+        <v>315.250706</v>
+      </c>
+      <c r="I22">
+        <v>0.403905177385519</v>
+      </c>
+      <c r="J22">
+        <v>0.403905177385519</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.020618</v>
+      </c>
+      <c r="N22">
+        <v>0.061854</v>
+      </c>
+      <c r="O22">
+        <v>0.0001626961273947449</v>
+      </c>
+      <c r="P22">
+        <v>0.000162696127394745</v>
+      </c>
+      <c r="Q22">
+        <v>2.166613018769334</v>
+      </c>
+      <c r="R22">
+        <v>19.499517168924</v>
+      </c>
+      <c r="S22">
+        <v>6.571380819531144E-05</v>
+      </c>
+      <c r="T22">
+        <v>6.571380819531146E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>105.0835686666667</v>
+      </c>
+      <c r="H23">
+        <v>315.250706</v>
+      </c>
+      <c r="I23">
+        <v>0.403905177385519</v>
+      </c>
+      <c r="J23">
+        <v>0.403905177385519</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>32.34376366666667</v>
+      </c>
+      <c r="N23">
+        <v>97.031291</v>
+      </c>
+      <c r="O23">
+        <v>0.2552238380995985</v>
+      </c>
+      <c r="P23">
+        <v>0.2552238380995986</v>
+      </c>
+      <c r="Q23">
+        <v>3398.798110204605</v>
+      </c>
+      <c r="R23">
+        <v>30589.18299184144</v>
+      </c>
+      <c r="S23">
+        <v>0.1030862296006313</v>
+      </c>
+      <c r="T23">
+        <v>0.1030862296006313</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>105.0835686666667</v>
+      </c>
+      <c r="H24">
+        <v>315.250706</v>
+      </c>
+      <c r="I24">
+        <v>0.403905177385519</v>
+      </c>
+      <c r="J24">
+        <v>0.403905177385519</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>54.17663333333333</v>
+      </c>
+      <c r="N24">
+        <v>162.5299</v>
+      </c>
+      <c r="O24">
+        <v>0.4275064719477343</v>
+      </c>
+      <c r="P24">
+        <v>0.4275064719477343</v>
+      </c>
+      <c r="Q24">
+        <v>5693.073969012155</v>
+      </c>
+      <c r="R24">
+        <v>51237.6657211094</v>
+      </c>
+      <c r="S24">
+        <v>0.172672077385507</v>
+      </c>
+      <c r="T24">
+        <v>0.172672077385507</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>105.0835686666667</v>
+      </c>
+      <c r="H25">
+        <v>315.250706</v>
+      </c>
+      <c r="I25">
+        <v>0.403905177385519</v>
+      </c>
+      <c r="J25">
+        <v>0.403905177385519</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>40.17406266666666</v>
+      </c>
+      <c r="N25">
+        <v>120.522188</v>
+      </c>
+      <c r="O25">
+        <v>0.3170125335910596</v>
+      </c>
+      <c r="P25">
+        <v>0.3170125335910596</v>
+      </c>
+      <c r="Q25">
+        <v>4221.633872851636</v>
+      </c>
+      <c r="R25">
+        <v>37994.70485566473</v>
+      </c>
+      <c r="S25">
+        <v>0.1280430036135297</v>
+      </c>
+      <c r="T25">
+        <v>0.1280430036135297</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>105.0835686666667</v>
+      </c>
+      <c r="H26">
+        <v>315.250706</v>
+      </c>
+      <c r="I26">
+        <v>0.403905177385519</v>
+      </c>
+      <c r="J26">
+        <v>0.403905177385519</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M26">
+        <v>0.01197066666666667</v>
+      </c>
+      <c r="N26">
+        <v>0.035912</v>
+      </c>
+      <c r="O26">
+        <v>9.446023421282504E-05</v>
+      </c>
+      <c r="P26">
+        <v>9.446023421282505E-05</v>
+      </c>
+      <c r="Q26">
+        <v>1.257920372652444</v>
+      </c>
+      <c r="R26">
+        <v>11.321283353872</v>
+      </c>
+      <c r="S26">
+        <v>3.815297765560876E-05</v>
+      </c>
+      <c r="T26">
+        <v>3.815297765560877E-05</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.3953956666666666</v>
+      </c>
+      <c r="H27">
+        <v>1.186187</v>
+      </c>
+      <c r="I27">
+        <v>0.001519765258344565</v>
+      </c>
+      <c r="J27">
+        <v>0.001519765258344565</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M27">
+        <v>0.020618</v>
+      </c>
+      <c r="N27">
+        <v>0.061854</v>
+      </c>
+      <c r="O27">
+        <v>0.0001626961273947449</v>
+      </c>
+      <c r="P27">
+        <v>0.000162696127394745</v>
+      </c>
+      <c r="Q27">
+        <v>0.008152267855333333</v>
+      </c>
+      <c r="R27">
+        <v>0.07337041069799999</v>
+      </c>
+      <c r="S27">
+        <v>2.472599220817348E-07</v>
+      </c>
+      <c r="T27">
+        <v>2.472599220817349E-07</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.3953956666666666</v>
+      </c>
+      <c r="H28">
+        <v>1.186187</v>
+      </c>
+      <c r="I28">
+        <v>0.001519765258344565</v>
+      </c>
+      <c r="J28">
+        <v>0.001519765258344565</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>32.34376366666667</v>
+      </c>
+      <c r="N28">
+        <v>97.031291</v>
+      </c>
+      <c r="O28">
+        <v>0.2552238380995985</v>
+      </c>
+      <c r="P28">
+        <v>0.2552238380995986</v>
+      </c>
+      <c r="Q28">
+        <v>12.78858399749078</v>
+      </c>
+      <c r="R28">
+        <v>115.097255977417</v>
+      </c>
+      <c r="S28">
+        <v>0.0003878803222451278</v>
+      </c>
+      <c r="T28">
+        <v>0.0003878803222451279</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.3953956666666666</v>
+      </c>
+      <c r="H29">
+        <v>1.186187</v>
+      </c>
+      <c r="I29">
+        <v>0.001519765258344565</v>
+      </c>
+      <c r="J29">
+        <v>0.001519765258344565</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>54.17663333333333</v>
+      </c>
+      <c r="N29">
+        <v>162.5299</v>
+      </c>
+      <c r="O29">
+        <v>0.4275064719477343</v>
+      </c>
+      <c r="P29">
+        <v>0.4275064719477343</v>
+      </c>
+      <c r="Q29">
+        <v>21.42120605458889</v>
+      </c>
+      <c r="R29">
+        <v>192.7908544913</v>
+      </c>
+      <c r="S29">
+        <v>0.0006497094837836219</v>
+      </c>
+      <c r="T29">
+        <v>0.0006497094837836222</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.3953956666666666</v>
+      </c>
+      <c r="H30">
+        <v>1.186187</v>
+      </c>
+      <c r="I30">
+        <v>0.001519765258344565</v>
+      </c>
+      <c r="J30">
+        <v>0.001519765258344565</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>40.17406266666666</v>
+      </c>
+      <c r="N30">
+        <v>120.522188</v>
+      </c>
+      <c r="O30">
+        <v>0.3170125335910596</v>
+      </c>
+      <c r="P30">
+        <v>0.3170125335910596</v>
+      </c>
+      <c r="Q30">
+        <v>15.88465029079511</v>
+      </c>
+      <c r="R30">
+        <v>142.961852617156</v>
+      </c>
+      <c r="S30">
+        <v>0.0004817846350114818</v>
+      </c>
+      <c r="T30">
+        <v>0.0004817846350114819</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.3953956666666666</v>
+      </c>
+      <c r="H31">
+        <v>1.186187</v>
+      </c>
+      <c r="I31">
+        <v>0.001519765258344565</v>
+      </c>
+      <c r="J31">
+        <v>0.001519765258344565</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M31">
+        <v>0.01197066666666667</v>
+      </c>
+      <c r="N31">
+        <v>0.035912</v>
+      </c>
+      <c r="O31">
+        <v>9.446023421282504E-05</v>
+      </c>
+      <c r="P31">
+        <v>9.446023421282505E-05</v>
+      </c>
+      <c r="Q31">
+        <v>0.004733149727111111</v>
+      </c>
+      <c r="R31">
+        <v>0.04259834754399999</v>
+      </c>
+      <c r="S31">
+        <v>1.435573822517422E-07</v>
+      </c>
+      <c r="T31">
+        <v>1.435573822517422E-07</v>
       </c>
     </row>
   </sheetData>
